--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col3a1-Ddr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col3a1-Ddr2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>6.003292333333334</v>
+        <v>1.169212666666667</v>
       </c>
       <c r="H2">
-        <v>18.009877</v>
+        <v>3.507638</v>
       </c>
       <c r="I2">
-        <v>0.002628468435338583</v>
+        <v>0.0005193657195729173</v>
       </c>
       <c r="J2">
-        <v>0.002628468435338583</v>
+        <v>0.0005193657195729173</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>3.048502333333333</v>
+        <v>1.121657333333333</v>
       </c>
       <c r="N2">
-        <v>9.145507</v>
+        <v>3.364972</v>
       </c>
       <c r="O2">
-        <v>0.02767295150267144</v>
+        <v>0.01078859740606296</v>
       </c>
       <c r="P2">
-        <v>0.02767295150267144</v>
+        <v>0.01078859740606296</v>
       </c>
       <c r="Q2">
-        <v>18.30105068584878</v>
+        <v>1.311455961792889</v>
       </c>
       <c r="R2">
-        <v>164.709456172639</v>
+        <v>11.803103656136</v>
       </c>
       <c r="S2">
-        <v>7.273747953742728E-05</v>
+        <v>5.603227654982397E-06</v>
       </c>
       <c r="T2">
-        <v>7.273747953742727E-05</v>
+        <v>5.603227654982397E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>6.003292333333334</v>
+        <v>1.169212666666667</v>
       </c>
       <c r="H3">
-        <v>18.009877</v>
+        <v>3.507638</v>
       </c>
       <c r="I3">
-        <v>0.002628468435338583</v>
+        <v>0.0005193657195729173</v>
       </c>
       <c r="J3">
-        <v>0.002628468435338583</v>
+        <v>0.0005193657195729173</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>251.486313</v>
       </c>
       <c r="O3">
-        <v>0.7609603866942148</v>
+        <v>0.8063022765396375</v>
       </c>
       <c r="P3">
-        <v>0.7609603866942148</v>
+        <v>0.8063022765396375</v>
       </c>
       <c r="Q3">
-        <v>503.2486182570558</v>
+        <v>98.01366088429934</v>
       </c>
       <c r="R3">
-        <v>4529.237564313502</v>
+        <v>882.122947958694</v>
       </c>
       <c r="S3">
-        <v>0.002000160356968786</v>
+        <v>0.0004187657620482902</v>
       </c>
       <c r="T3">
-        <v>0.002000160356968786</v>
+        <v>0.0004187657620482902</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>6.003292333333334</v>
+        <v>1.169212666666667</v>
       </c>
       <c r="H4">
-        <v>18.009877</v>
+        <v>3.507638</v>
       </c>
       <c r="I4">
-        <v>0.002628468435338583</v>
+        <v>0.0005193657195729173</v>
       </c>
       <c r="J4">
-        <v>0.002628468435338583</v>
+        <v>0.0005193657195729173</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.28453333333333</v>
+        <v>19.0165</v>
       </c>
       <c r="N4">
-        <v>69.8536</v>
+        <v>57.0495</v>
       </c>
       <c r="O4">
-        <v>0.2113666618031137</v>
+        <v>0.1829091260542996</v>
       </c>
       <c r="P4">
-        <v>0.2113666618031138</v>
+        <v>0.1829091260542996</v>
       </c>
       <c r="Q4">
-        <v>139.7838604452445</v>
+        <v>22.23433267566667</v>
       </c>
       <c r="R4">
-        <v>1258.0547440072</v>
+        <v>200.108994081</v>
       </c>
       <c r="S4">
-        <v>0.0005555705988323698</v>
+        <v>9.499672986964477E-05</v>
       </c>
       <c r="T4">
-        <v>0.0005555705988323698</v>
+        <v>9.499672986964477E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>6509.435058</v>
       </c>
       <c r="I5">
-        <v>0.9500256210433516</v>
+        <v>0.9638330474556795</v>
       </c>
       <c r="J5">
-        <v>0.9500256210433515</v>
+        <v>0.9638330474556795</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>3.048502333333333</v>
+        <v>1.121657333333333</v>
       </c>
       <c r="N5">
-        <v>9.145507</v>
+        <v>3.364972</v>
       </c>
       <c r="O5">
-        <v>0.02767295150267144</v>
+        <v>0.01078859740606296</v>
       </c>
       <c r="P5">
-        <v>0.02767295150267144</v>
+        <v>0.01078859740606296</v>
       </c>
       <c r="Q5">
-        <v>6614.675987664934</v>
+        <v>2433.785189554264</v>
       </c>
       <c r="R5">
-        <v>59532.08388898441</v>
+        <v>21904.06670598837</v>
       </c>
       <c r="S5">
-        <v>0.02629001293742798</v>
+        <v>0.0103984067156581</v>
       </c>
       <c r="T5">
-        <v>0.02629001293742798</v>
+        <v>0.0103984067156581</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>6509.435058</v>
       </c>
       <c r="I6">
-        <v>0.9500256210433516</v>
+        <v>0.9638330474556795</v>
       </c>
       <c r="J6">
-        <v>0.9500256210433515</v>
+        <v>0.9638330474556795</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>251.486313</v>
       </c>
       <c r="O6">
-        <v>0.7609603866942148</v>
+        <v>0.8063022765396375</v>
       </c>
       <c r="P6">
-        <v>0.7609603866942148</v>
+        <v>0.8063022765396375</v>
       </c>
       <c r="Q6">
         <v>181892.6469388179</v>
@@ -818,10 +818,10 @@
         <v>1637033.822449361</v>
       </c>
       <c r="S6">
-        <v>0.7229318639585605</v>
+        <v>0.7771407803676509</v>
       </c>
       <c r="T6">
-        <v>0.7229318639585604</v>
+        <v>0.7771407803676509</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>6509.435058</v>
       </c>
       <c r="I7">
-        <v>0.9500256210433516</v>
+        <v>0.9638330474556795</v>
       </c>
       <c r="J7">
-        <v>0.9500256210433515</v>
+        <v>0.9638330474556795</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.28453333333333</v>
+        <v>19.0165</v>
       </c>
       <c r="N7">
-        <v>69.8536</v>
+        <v>57.0495</v>
       </c>
       <c r="O7">
-        <v>0.2113666618031137</v>
+        <v>0.1829091260542996</v>
       </c>
       <c r="P7">
-        <v>0.2113666618031138</v>
+        <v>0.1829091260542996</v>
       </c>
       <c r="Q7">
-        <v>50523.05252972319</v>
+        <v>41262.223926819</v>
       </c>
       <c r="R7">
-        <v>454707.4727675088</v>
+        <v>371360.015341371</v>
       </c>
       <c r="S7">
-        <v>0.2008037441473632</v>
+        <v>0.1762938603723706</v>
       </c>
       <c r="T7">
-        <v>0.2008037441473632</v>
+        <v>0.1762938603723706</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>108.1357256666667</v>
+        <v>80.250984</v>
       </c>
       <c r="H8">
-        <v>324.407177</v>
+        <v>240.752952</v>
       </c>
       <c r="I8">
-        <v>0.04734591052130986</v>
+        <v>0.03564758682474761</v>
       </c>
       <c r="J8">
-        <v>0.04734591052130985</v>
+        <v>0.0356475868247476</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>3.048502333333333</v>
+        <v>1.121657333333333</v>
       </c>
       <c r="N8">
-        <v>9.145507</v>
+        <v>3.364972</v>
       </c>
       <c r="O8">
-        <v>0.02767295150267144</v>
+        <v>0.01078859740606296</v>
       </c>
       <c r="P8">
-        <v>0.02767295150267144</v>
+        <v>0.01078859740606296</v>
       </c>
       <c r="Q8">
-        <v>329.6520120115266</v>
+        <v>90.014104710816</v>
       </c>
       <c r="R8">
-        <v>2966.868108103739</v>
+        <v>810.1269423973439</v>
       </c>
       <c r="S8">
-        <v>0.001310201085706029</v>
+        <v>0.0003845874627498761</v>
       </c>
       <c r="T8">
-        <v>0.001310201085706029</v>
+        <v>0.0003845874627498759</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>108.1357256666667</v>
+        <v>80.250984</v>
       </c>
       <c r="H9">
-        <v>324.407177</v>
+        <v>240.752952</v>
       </c>
       <c r="I9">
-        <v>0.04734591052130986</v>
+        <v>0.03564758682474761</v>
       </c>
       <c r="J9">
-        <v>0.04734591052130985</v>
+        <v>0.0356475868247476</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>251.486313</v>
       </c>
       <c r="O9">
-        <v>0.7609603866942148</v>
+        <v>0.8063022765396375</v>
       </c>
       <c r="P9">
-        <v>0.7609603866942148</v>
+        <v>0.8063022765396375</v>
       </c>
       <c r="Q9">
-        <v>9064.884983829823</v>
+        <v>6727.341360260664</v>
       </c>
       <c r="R9">
-        <v>81583.9648544684</v>
+        <v>60546.07224234597</v>
       </c>
       <c r="S9">
-        <v>0.03602836237868565</v>
+        <v>0.02874273040993838</v>
       </c>
       <c r="T9">
-        <v>0.03602836237868564</v>
+        <v>0.02874273040993838</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>108.1357256666667</v>
+        <v>80.250984</v>
       </c>
       <c r="H10">
-        <v>324.407177</v>
+        <v>240.752952</v>
       </c>
       <c r="I10">
-        <v>0.04734591052130986</v>
+        <v>0.03564758682474761</v>
       </c>
       <c r="J10">
-        <v>0.04734591052130985</v>
+        <v>0.0356475868247476</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.28453333333333</v>
+        <v>19.0165</v>
       </c>
       <c r="N10">
-        <v>69.8536</v>
+        <v>57.0495</v>
       </c>
       <c r="O10">
-        <v>0.2113666618031137</v>
+        <v>0.1829091260542996</v>
       </c>
       <c r="P10">
-        <v>0.2113666618031138</v>
+        <v>0.1829091260542996</v>
       </c>
       <c r="Q10">
-        <v>2517.889908809689</v>
+        <v>1526.092837236</v>
       </c>
       <c r="R10">
-        <v>22661.0091792872</v>
+        <v>13734.835535124</v>
       </c>
       <c r="S10">
-        <v>0.01000734705691819</v>
+        <v>0.006520268952059351</v>
       </c>
       <c r="T10">
-        <v>0.01000734705691819</v>
+        <v>0.006520268952059349</v>
       </c>
     </row>
   </sheetData>
